--- a/app/scripts/lectures/subjects.xlsx
+++ b/app/scripts/lectures/subjects.xlsx
@@ -101,25 +101,484 @@
     <row r="2" spans="1:7" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>CD222</t>
+          <t>GEN0801</t>
         </is>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0">
         <v>2</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customHeight="0">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>GEN0802</t>
+        </is>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customHeight="0">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>GEN0806</t>
+        </is>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customHeight="0">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>GEN0807</t>
+        </is>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customHeight="0">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>GEN0809</t>
+        </is>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customHeight="0">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>GEN0810</t>
+        </is>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customHeight="0">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>MEC0811</t>
+        </is>
+      </c>
+      <c r="B8" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customHeight="0">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>GEN1801</t>
+        </is>
+      </c>
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:7" customHeight="0">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>CIE1803</t>
+        </is>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:7" customHeight="0">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>POW1804</t>
+        </is>
+      </c>
+      <c r="B11" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:7" customHeight="0">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>GEN1805</t>
+        </is>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customHeight="0">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>CIE1808</t>
+        </is>
+      </c>
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customHeight="0">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>GEN1809</t>
+        </is>
+      </c>
+      <c r="B14" s="0">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customHeight="0">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>CIE2802</t>
+        </is>
+      </c>
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:7" customHeight="0">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>GEN2810</t>
+        </is>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:7" customHeight="0">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>CIE3801</t>
+        </is>
+      </c>
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:7" customHeight="0">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>CIE3804</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:7" customHeight="0">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>CIE4818</t>
+        </is>
+      </c>
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
         <is>
           <t>Communications</t>
         </is>
